--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1999,7 +1999,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1" thickBot="1">
+    <row r="10" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
       <c r="B10" s="38"/>
       <c r="C10" s="39" t="s">
         <v>97</v>
@@ -2016,7 +2016,7 @@
       <c r="G10" s="40"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="2:9" ht="83.25" customHeight="1">
+    <row r="11" spans="2:9" ht="83.25" customHeight="1" thickBot="1">
       <c r="B11" s="2"/>
       <c r="C11" s="10" t="s">
         <v>12</v>
@@ -2033,9 +2033,6 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="12" spans="2:9" ht="176.25" thickBot="1">
       <c r="B12" s="2" t="s">
@@ -2055,6 +2052,9 @@
       </c>
       <c r="G12" s="7" t="s">
         <v>115</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="148.5">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1021,7 +1021,7 @@
  /* the mobile that register */
  "mobile": xxxx,
  /* the message id */
- "friend_moible": xxx,
+ "friend_mobile": xxx,
  "mesg_id": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="127">
   <si>
     <t>check if register</t>
   </si>
@@ -1023,6 +1023,49 @@
  /* the message id */
  "friend_mobile": xxx,
  "mesg_id": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/download_avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/upload_avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "mobile": xxxx,
+ "avatar": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "mobile": xxxx,
+ "avatar_id": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "avatar": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "avatar_id": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1408,6 +1451,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1509,8 +1571,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -1821,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1921,157 +1983,191 @@
       </c>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="2:9" ht="99.95" customHeight="1">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:9" s="51" customFormat="1" ht="99.95" customHeight="1">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="2:9" s="51" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="2:9" ht="99.95" customHeight="1">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H8" s="34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="99.95" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="10" t="s">
+    <row r="9" spans="2:9" ht="99.95" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H9" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="173.25" customHeight="1">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+    <row r="10" spans="2:9" ht="173.25" customHeight="1">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="2:9" ht="96" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:9" ht="96" customHeight="1">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E11" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D12" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F12" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="2:9" ht="83.25" customHeight="1" thickBot="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="10" t="s">
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:9" ht="83.25" customHeight="1" thickBot="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="176.25" thickBot="1">
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="2:9" ht="176.25" thickBot="1">
+      <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H14" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="148.5">
-      <c r="B13" s="2"/>
-      <c r="C13" s="12" t="s">
+    <row r="15" spans="2:9" ht="148.5">
+      <c r="B15" s="2"/>
+      <c r="C15" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E15" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F15" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>116</v>
       </c>
     </row>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1031,41 +1031,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>upload avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/upload_avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "avatar_url": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ //media file
+ "avatar": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "avatar_url": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user/download_avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/upload_avatar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
  "mobile": xxxx,
+ //media file
  "avatar": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "mobile": xxxx,
- "avatar_id": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "avatar": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "avatar_id": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1448,28 +1449,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1886,7 +1887,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1983,39 +1984,39 @@
       </c>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="2:9" s="51" customFormat="1" ht="99.95" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46" t="s">
+    <row r="6" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="2:9" s="51" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="2:9" ht="99.95" customHeight="1">
       <c r="B8" s="13" t="s">
@@ -2314,12 +2315,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -263,14 +263,6 @@
   </si>
   <si>
     <t>{
- "status": 0,
- "username": xxxx,
- "nickname": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "status": 503,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +671,362 @@
   </si>
   <si>
     <t>friend/update_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ "mobile": xxxx,
+ "password": xxxx,
+ "confirmpass": xxxx,
+ "imsi": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "nickname": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ "status": 0
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"server_friend_version": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/delete_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "search_str": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "friends": [
+ { "nickname": xxxx,
+      "avatar_url": xxxx,
+      "mobile": xxx,
+ },{}
+ ]
+ "circle": [
+ { "circlename": xxx,
+      "circle_url": xxx,
+ }, {}
+ ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile that want to add */
+ "friend_mobile": xxxx, 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /* the mobile that register */
+ "mobile": xxxx,
+ /* 1: agree, 0: disagree */</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ "nok": x,
+ /* the mobile that want to respone */
+ "friend_mobile": xxxx, 
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile that want to update */
+ "friend_mobile": xxxx, 
+ /* comment to identify friend */
+ "comment": xxxx,
+ /* group that settle the friend */
+ "group": xxxx,
+ /* description for friend */
+ "description": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile that want to delete */
+ "friend_mobile": xxxx, 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "local_friend_version": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Push Message Format：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>msg content： 202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+extras： 发送方用户名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIPS Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips/send_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips/get_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile to which send tip */
+ "friend_mobile": xxxx,
+ /* message content */
+ "message": xxxx,
+ /* message create time */
+ "create_time": xxxx,
+ /* audio, photo if exist */
+ "audio_url": xxx,
+ "photo_url": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Push Message Format：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>msg content： 302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+extras： { "from": xxx, "id": xxx }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message do not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender or receiver don't register:
+{
+ "status": 28,
+ "error": "user have not register",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sender or receiver don't register:
+{
+ "status": 28,
+ "error": "user have not register",
+}
+2. message don't exist:
+{
+ "status": 39,
+ "error": "message do not exist",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "status": 0,
+ "mobile": xxx,
+ "friend_mobile": xxx,
+ "message": xxx,
+ "create_time": xxxx,
+ "audio_url": xxx,
+ "photo_url": xxx,
+}
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the message id */
+ "friend_mobile": xxx,
+ "mesg_id": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/upload_avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "avatar_url": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ //media file
+ "avatar": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "avatar_url": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/download_avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "mobile": xxxx,
+ //media file
+ "avatar": xxxx,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -717,10 +1065,9 @@
   <si>
     <r>
       <t xml:space="preserve">{
- "mobile": xxxx,
- "password": xxxx,
- "confirmpass": xxxx,
- "imsi": xxxx,
+ "status": 0,
+ "username": xxxx,
+ "nickname": xxxx,
 </t>
     </r>
     <r>
@@ -732,37 +1079,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "nickname": xxxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
- "status": 0
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"server_friend_version": xxx,</t>
+      <t xml:space="preserve"> "avatar_url":xxxx,</t>
     </r>
     <r>
       <rPr>
@@ -775,299 +1092,6 @@
       <t xml:space="preserve">
 }</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend/delete_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- "search_str": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "friends": [
- { "nickname": xxxx,
-      "avatar_url": xxxx,
-      "mobile": xxx,
- },{}
- ]
- "circle": [
- { "circlename": xxx,
-      "circle_url": xxx,
- }, {}
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the mobile that want to add */
- "friend_mobile": xxxx, 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /* the mobile that register */
- "mobile": xxxx,
- /* 1: agree, 0: disagree */</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "nok": x,
- /* the mobile that want to respone */
- "friend_mobile": xxxx, 
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the mobile that want to update */
- "friend_mobile": xxxx, 
- /* comment to identify friend */
- "comment": xxxx,
- /* group that settle the friend */
- "group": xxxx,
- /* description for friend */
- "description": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the mobile that want to delete */
- "friend_mobile": xxxx, 
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- "local_friend_version": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Push Message Format：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>msg content： 202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-extras： 发送方用户名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIPS Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips/send_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips/get_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the mobile to which send tip */
- "friend_mobile": xxxx,
- /* message content */
- "message": xxxx,
- /* message create time */
- "create_time": xxxx,
- /* audio, photo if exist */
- "audio_url": xxx,
- "photo_url": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Push Message Format：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>msg content： 302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-extras： { "from": xxx, "id": xxx }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message do not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender or receiver don't register:
-{
- "status": 28,
- "error": "user have not register",
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.sender or receiver don't register:
-{
- "status": 28,
- "error": "user have not register",
-}
-2. message don't exist:
-{
- "status": 39,
- "error": "message do not exist",
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
- "status": 0,
- "mobile": xxx,
- "friend_mobile": xxx,
- "message": xxx,
- "create_time": xxxx,
- "audio_url": xxx,
- "photo_url": xxx,
-}
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the message id */
- "friend_mobile": xxx,
- "mesg_id": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>download avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/upload_avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "avatar_url": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- //media file
- "avatar": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "avatar_url": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/download_avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "mobile": xxxx,
- //media file
- "avatar": xxxx,
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1903,10 +1927,10 @@
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1918,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1">
@@ -1938,10 +1962,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="34"/>
     </row>
@@ -1954,13 +1978,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="5"/>
@@ -1974,29 +1998,29 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
       <c r="B6" s="44"/>
       <c r="C6" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>122</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
@@ -2004,16 +2028,16 @@
     <row r="7" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
       <c r="B7" s="44"/>
       <c r="C7" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
@@ -2029,52 +2053,52 @@
         <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="99.95" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="173.25" customHeight="1">
       <c r="B10" s="23"/>
       <c r="C10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>85</v>
-      </c>
       <c r="E10" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35"/>
@@ -2082,16 +2106,16 @@
     <row r="11" spans="2:9" ht="96" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>93</v>
-      </c>
       <c r="E11" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="35"/>
@@ -2099,16 +2123,16 @@
     <row r="12" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
       <c r="B12" s="38"/>
       <c r="C12" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="41"/>
@@ -2122,54 +2146,54 @@
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="176.25" thickBot="1">
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>110</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>112</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="148.5">
       <c r="B15" s="2"/>
       <c r="C15" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2199,10 +2223,10 @@
   <sheetData>
     <row r="2" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2210,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2218,7 +2242,7 @@
         <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2226,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2234,7 +2258,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2242,7 +2266,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2250,7 +2274,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2258,7 +2282,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2266,7 +2290,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2274,7 +2298,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -2282,7 +2306,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2340,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
       <c r="B1" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
@@ -2324,12 +2348,12 @@
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -2338,521 +2362,521 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1"/>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
       <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
         <v>68</v>
       </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
       <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
         <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="Q11" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:18">
       <c r="H20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="Q23" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="O25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" t="s">
         <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:18">
       <c r="D27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
       <c r="H27" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:18">
       <c r="H35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:18">
       <c r="H37" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="Q37" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="H42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="2:18">
       <c r="H44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:18">
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:18">
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="B50" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="B52" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="H53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="B54" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="B56" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" t="s">
-        <v>48</v>
-      </c>
       <c r="H56" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="K56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1">
@@ -2875,80 +2899,80 @@
     </row>
     <row r="58" spans="1:18">
       <c r="H58" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="H60" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="2:5" s="29" customFormat="1"/>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="C75" s="28"/>
       <c r="D75" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="2:5">
@@ -2963,22 +2987,22 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t>check if register</t>
   </si>
@@ -976,16 +976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the message id */
- "friend_mobile": xxx,
- "mesg_id": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>download avatar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,6 +1082,73 @@
       <t xml:space="preserve">
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feed Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/locate_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/locate_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the message id */
+ "friend_mobile": xxx,
+ "mesg_id": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1596,8 +1653,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -1908,16 +1965,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
     <col min="5" max="5" width="39.25" style="22" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
@@ -1962,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>17</v>
@@ -2011,16 +2068,16 @@
     <row r="6" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
       <c r="B6" s="44"/>
       <c r="C6" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="E6" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>119</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>120</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
@@ -2028,16 +2085,16 @@
     <row r="7" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
       <c r="B7" s="44"/>
       <c r="C7" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
@@ -2098,7 +2155,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35"/>
@@ -2169,7 +2226,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>113</v>
@@ -2187,7 +2244,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>115</v>
@@ -2195,6 +2252,40 @@
       <c r="G15" s="7" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="16" spans="2:9" ht="94.5">
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" ht="67.5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>check if register</t>
   </si>
@@ -893,22 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the mobile to which send tip */
- "friend_mobile": xxxx,
- /* message content */
- "message": xxxx,
- /* message create time */
- "create_time": xxxx,
- /* audio, photo if exist */
- "audio_url": xxx,
- "photo_url": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Push Message Format：
 </t>
@@ -1126,13 +1110,46 @@
   </si>
   <si>
     <t>{
+ "status": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
  /* the mobile that register */
  "mobile": xxxx,
+ /* the mobile to which send tip */
+ "friend_mobile": xxxx,
+ /* message content */
+ "message": xxxx,
+ /* message create time */
+ "create_time": xxxx,
+ /* audio, photo if exist */
+ "audio_url": xxx,
+ "photo_url": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile to which get geo info */
+ "friend_mobile": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "mobile": xxx,
+ "friend_mobile": xxx
  /* lat and lng */
  "lat": xxx,
  "lng": xxx,
@@ -1140,14 +1157,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>location_get_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/locate_get_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
- "status": 0
+ /* the mobile that register */
+ "mobile": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
- "status": 0
+ "status": 0, 
+ "mobile": xxx,
+ "geo": [ 
+ {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ }, {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ },
+ ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,7 +1196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,6 +1315,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1421,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1551,6 +1599,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1653,8 +1704,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G18"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -1965,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F18:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1976,7 +2027,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="27.25" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="22" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
     <col min="7" max="7" width="56.375" customWidth="1"/>
     <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
@@ -2019,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>17</v>
@@ -2068,16 +2119,16 @@
     <row r="6" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
       <c r="B6" s="44"/>
       <c r="C6" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="E6" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>118</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>119</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
@@ -2085,16 +2136,16 @@
     <row r="7" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
       <c r="B7" s="44"/>
       <c r="C7" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
@@ -2155,7 +2206,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35"/>
@@ -2223,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="E14" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>110</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="148.5">
@@ -2244,48 +2295,64 @@
         <v>107</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="94.5">
       <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="E16" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="2:7" ht="67.5">
+    <row r="17" spans="2:7" ht="229.5">
       <c r="B17" s="2"/>
       <c r="C17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7" ht="108">
+      <c r="B18" s="2"/>
+      <c r="C18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="22"/>
+      <c r="E18" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2397,7 +2464,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
   <si>
     <t>check if register</t>
   </si>
@@ -1189,6 +1189,12 @@
  },
  ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 303
+extras： 发送方用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1597,11 +1603,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2018,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F18:F25"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2322,7 +2328,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="2:7" ht="229.5">
+    <row r="17" spans="2:8" ht="229.5">
       <c r="B17" s="2"/>
       <c r="C17" s="12" t="s">
         <v>137</v>
@@ -2330,7 +2336,7 @@
       <c r="D17" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="51" t="s">
         <v>139</v>
       </c>
       <c r="F17" s="43" t="s">
@@ -2338,7 +2344,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="2:7" ht="108">
+    <row r="18" spans="2:8" ht="108">
       <c r="B18" s="2"/>
       <c r="C18" s="12" t="s">
         <v>128</v>
@@ -2353,6 +2359,9 @@
         <v>136</v>
       </c>
       <c r="G18" s="22"/>
+      <c r="H18" s="35" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2497,12 +2506,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="144">
   <si>
     <t>check if register</t>
   </si>
@@ -1081,14 +1081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>location_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feed/locate_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
@@ -1195,6 +1187,48 @@
     <t>Push Message Format：
 msg content： 303
 extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/locate_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/* position already expired, need update by friend */
+ "status": 401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据过期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1725,8 +1759,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D12" totalsRowShown="0">
-  <autoFilter ref="C2:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D13" totalsRowShown="0">
+  <autoFilter ref="C2:D13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="返回码" dataDxfId="0"/>
     <tableColumn id="2" name="说明"/>
@@ -2024,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2280,10 +2314,10 @@
         <v>106</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>112</v>
@@ -2301,7 +2335,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>114</v>
@@ -2321,46 +2355,48 @@
         <v>127</v>
       </c>
       <c r="E16" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="43" t="s">
         <v>131</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>133</v>
       </c>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="2:8" ht="229.5">
       <c r="B17" s="2"/>
       <c r="C17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="F17" s="43" t="s">
         <v>138</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:8" ht="108">
       <c r="B18" s="2"/>
       <c r="C18" s="12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="22"/>
+        <v>134</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>142</v>
+      </c>
       <c r="H18" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2376,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D12"/>
+  <dimension ref="C2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2414,65 +2450,73 @@
     </row>
     <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="17">
-        <v>14</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="17">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="17">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="17">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="20.100000000000001" customHeight="1">
+      <c r="C12" s="17">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="17">
+    <row r="13" spans="3:4">
+      <c r="C13" s="17">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>111</v>
       </c>
     </row>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="140">
   <si>
     <t>check if register</t>
   </si>
@@ -1129,72 +1129,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the mobile to which get geo info */
- "friend_mobile": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "mobile": xxx,
- "friend_mobile": xxx
- /* lat and lng */
- "lat": xxx,
- "lng": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_get_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feed/locate_get_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0, 
- "mobile": xxx,
- "geo": [ 
- {
- "friend_mobile": xxx
- /* lat and lng */
- "lat": xxx,
- "lng": xxx,
- }, {
- "friend_mobile": xxx
- /* lat and lng */
- "lat": xxx,
- "lng": xxx,
- },
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Push Message Format：
 msg content： 303
 extras： 发送方用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feed/locate_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location_update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1229,6 +1166,45 @@
   </si>
   <si>
     <t>数据过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/locate_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* indicator as getting one or all, probably argument: one / all */
+ "requireType": xxxx,
+ /* the mobile to which get geo info, if the require type is all, ignore this argument */
+ "friend_mobile": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0, 
+ "mobile": xxx,
+ "geo": [ 
+ {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ }, {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ },
+ ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,8 +1720,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2056,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2365,38 +2341,22 @@
     <row r="17" spans="2:8" ht="229.5">
       <c r="B17" s="2"/>
       <c r="C17" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="2:8" ht="108">
-      <c r="B18" s="2"/>
-      <c r="C18" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>133</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2453,7 +2413,7 @@
         <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>check if register</t>
   </si>
@@ -1135,36 +1135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/* position already expired, need update by friend */
- "status": 401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据过期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1174,17 +1144,6 @@
   </si>
   <si>
     <t>feed/locate_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* indicator as getting one or all, probably argument: one / all */
- "requireType": xxxx,
- /* the mobile to which get geo info, if the require type is all, ignore this argument */
- "friend_mobile": xxx,
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1205,6 +1164,53 @@
  },
  ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>argument miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* indicator as getting one or all, probably argument: one / all */
+ "require_type": xxxx,
+ /* the mobile to which get geo info, if the require type is all, ignore this argument */
+ "friend_mobile": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/* position already expired, need update by friend */
+ "status": 401
+ /* miss require type */
+ "status": 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,8 +1741,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D13" totalsRowShown="0">
-  <autoFilter ref="C2:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D14" totalsRowShown="0">
+  <autoFilter ref="C2:D14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="返回码" dataDxfId="0"/>
     <tableColumn id="2" name="说明"/>
@@ -2035,7 +2041,7 @@
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2341,19 +2347,19 @@
     <row r="17" spans="2:8" ht="229.5">
       <c r="B17" s="2"/>
       <c r="C17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>139</v>
-      </c>
       <c r="G17" s="22" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>133</v>
@@ -2372,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D13"/>
+  <dimension ref="C2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2413,7 +2419,7 @@
         <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2442,41 +2448,49 @@
     </row>
     <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="17">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="17">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="17">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="17">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="20.100000000000001" customHeight="1">
+      <c r="C13" s="17">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="17">
+    <row r="14" spans="3:4">
+      <c r="C14" s="17">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>111</v>
       </c>
     </row>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1113,22 +1113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the mobile to which send tip */
- "friend_mobile": xxxx,
- /* message content */
- "message": xxxx,
- /* message create time */
- "create_time": xxxx,
- /* audio, photo if exist */
- "audio_url": xxx,
- "photo_url": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Push Message Format：
 msg content： 303
 extras： 发送方用户名</t>
@@ -1213,12 +1197,74 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile to which send tip */
+ "friend_mobile": xxxx,
+ /* message content */
+ "message": xxxx,
+ /* message create time */
+ "create_time": xxxx,
+ /* audio, photo if exist */
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "audio_file": </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ "photo_file": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1391,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2040,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2296,7 +2351,7 @@
         <v>106</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>130</v>
@@ -2347,22 +2402,22 @@
     <row r="17" spans="2:8" ht="229.5">
       <c r="B17" s="2"/>
       <c r="C17" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="G17" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>140</v>
-      </c>
       <c r="H17" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2474,7 @@
         <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2451,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="145">
   <si>
     <t>check if register</t>
   </si>
@@ -980,13 +980,6 @@
   </si>
   <si>
     <t>{
- //media file
- "avatar": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "avatar_url": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1257,6 +1250,35 @@
       <t xml:space="preserve">
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tipss/dload_audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* audio url */
+ "audio_url": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* audio file */
+ audio file
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ //media file
+ avatar
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1546,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1679,6 +1701,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1781,8 +1806,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G18"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2093,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2147,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>17</v>
@@ -2202,7 +2227,7 @@
         <v>117</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>118</v>
@@ -2216,13 +2241,13 @@
         <v>115</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
@@ -2283,7 +2308,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35"/>
@@ -2351,10 +2376,10 @@
         <v>106</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>112</v>
@@ -2372,7 +2397,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>114</v>
@@ -2381,43 +2406,59 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="94.5">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:9" ht="54">
+      <c r="B16" s="2"/>
+      <c r="C16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="2:8" ht="94.5">
+      <c r="B17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="43" t="s">
+      <c r="E17" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:8" ht="229.5">
+      <c r="B18" s="2"/>
+      <c r="C18" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="2:8" ht="229.5">
-      <c r="B17" s="2"/>
-      <c r="C17" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2515,7 @@
         <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2506,7 +2547,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="156">
   <si>
     <t>check if register</t>
   </si>
@@ -1106,12 +1106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Push Message Format：
-msg content： 303
-extras： 发送方用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据过期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,6 +1273,81 @@
  //media file
  avatar
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start ball game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball/locate_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball/reference_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query ball base on location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query ball base on reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ball Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* what type of ball */
+ "type": xxx,
+ /* what content in ball */
+ "content": xxx,
+ /* duration of ball running */
+ "duration": xxx,
+ /* the target of ball's track */
+ "target": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "status": 0,
+ "mobile": xxx,
+ "ball_id": xxxx,
+}
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the ball id */
+ "ball_id": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 303
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/* ball got end, notify all reference people */
+Push Message Format：
+msg content： 285
+extras： 发送方用户名
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1699,11 +1768,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,8 +1878,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G22"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2118,16 +2190,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
     <col min="5" max="5" width="40.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
@@ -2247,7 +2319,7 @@
         <v>119</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
@@ -2376,7 +2448,7 @@
         <v>106</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>129</v>
@@ -2409,18 +2481,18 @@
     <row r="16" spans="2:9" ht="54">
       <c r="B16" s="2"/>
       <c r="C16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="43" t="s">
+      <c r="F16" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="2:8" ht="94.5">
       <c r="B17" s="2" t="s">
@@ -2443,23 +2515,78 @@
     <row r="18" spans="2:8" ht="229.5">
       <c r="B18" s="2"/>
       <c r="C18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="G18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>138</v>
-      </c>
       <c r="H18" s="35" t="s">
-        <v>131</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="162">
+      <c r="B19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="81">
+      <c r="B20" s="2"/>
+      <c r="C20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:8" ht="81">
+      <c r="B21" s="2"/>
+      <c r="C21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2515,7 +2642,7 @@
         <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2547,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2620,12 +2747,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1304,6 +1304,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">{
+ "status": 0,
+ "mobile": xxx,
+ "ball_id": xxxx,
+}
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the ball id */
+ "ball_id": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 303
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/* ball got end, notify all reference people */
+Push Message Format：
+msg content： 285
+extras： 发送方用户名
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
@@ -1315,39 +1347,9 @@
  "duration": xxx,
  /* the target of ball's track */
  "target": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
- "status": 0,
- "mobile": xxx,
- "ball_id": xxxx,
-}
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the ball id */
- "ball_id": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push Message Format：
-msg content： 303
-extras： 发送方用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/* ball got end, notify all reference people */
-Push Message Format：
-msg content： 285
-extras： 发送方用户名
-</t>
+ /* the init location */
+ "init_loc": xxxx,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1771,11 +1773,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2192,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2530,10 +2532,10 @@
         <v>137</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="162">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="189">
       <c r="B19" s="2" t="s">
         <v>150</v>
       </c>
@@ -2544,14 +2546,14 @@
         <v>145</v>
       </c>
       <c r="E19" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>152</v>
-      </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="54" t="s">
-        <v>155</v>
+      <c r="H19" s="53" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="81">
@@ -2563,7 +2565,7 @@
         <v>146</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="22"/>
@@ -2577,7 +2579,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="22"/>
@@ -2747,12 +2749,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="158">
   <si>
     <t>check if register</t>
   </si>
@@ -1304,15 +1304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
- "status": 0,
- "mobile": xxx,
- "ball_id": xxxx,
-}
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
@@ -1345,10 +1336,39 @@
  "content": xxx,
  /* duration of ball running */
  "duration": xxx,
- /* the target of ball's track */
- "target": xxxx,
- /* the init location */
- "init_loc": xxxx,
+ /* the begin of ball will start */
+ "begin_lat": xxxx,
+ "begin_lng": xxxx,
+ /* the end of ball will stop */
+ "end_lat": xxxx,
+ "end_lng": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "status": 0,
+ "mobile": xxx,
+ "ball_id": xxxx,
+}
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "mobile": xxx,
+ "ball_lat": xxxx,
+ "ball_lng": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "mobile": xxx,
+ "ball_lat": xxxx,
+ "ball_lng": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2194,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2532,10 +2552,10 @@
         <v>137</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="189">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="216">
       <c r="B19" s="2" t="s">
         <v>150</v>
       </c>
@@ -2546,14 +2566,14 @@
         <v>145</v>
       </c>
       <c r="E19" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>155</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>151</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="81">
@@ -2565,9 +2585,11 @@
         <v>146</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>156</v>
+      </c>
       <c r="G20" s="22"/>
     </row>
     <row r="21" spans="2:8" ht="81">
@@ -2579,9 +2601,11 @@
         <v>147</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>157</v>
+      </c>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:8">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="167">
   <si>
     <t>check if register</t>
   </si>
@@ -1288,28 +1288,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ball/reference_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>query ball base on location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>query ball base on reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ball Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the ball id */
- "ball_id": xxx,
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1355,20 +1338,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Profile Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "status": 0,
- "mobile": xxx,
- "ball_lat": xxxx,
- "ball_lng": xxxx,
-}</t>
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query ball base by users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball/get_all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
- "status": 0,
- "mobile": xxx,
- "ball_lat": xxxx,
- "ball_lng": xxxx,
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the location */
+ "lat": xxx,
+ "lng": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the user blood */
+ "blood_level": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the user blood */
+ "blood_level": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile":xxx,
+ "balls:":[{
+  /* the mobile that register */
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ },{
+  /* the mobile that register */
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ }]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1900,8 +1969,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G23"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2212,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2552,12 +2621,12 @@
         <v>137</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="216">
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>144</v>
@@ -2566,53 +2635,81 @@
         <v>145</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="81">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="337.5">
       <c r="B20" s="2"/>
       <c r="C20" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="2:8" ht="81">
+    <row r="21" spans="2:8" ht="337.5">
       <c r="B21" s="2"/>
       <c r="C21" s="12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+    <row r="22" spans="2:8" ht="81">
+      <c r="B22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>155</v>
+      </c>
       <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:8" ht="81">
+      <c r="B23" s="2"/>
+      <c r="C23" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="170">
   <si>
     <t>check if register</t>
   </si>
@@ -1439,6 +1439,18 @@
   "current_lng": xxxx,
  }]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you hit by ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>your ball has hit someone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>your ball hit nothing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1984,8 +1996,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D14" totalsRowShown="0">
-  <autoFilter ref="C2:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="C2:D17" totalsRowShown="0">
+  <autoFilter ref="C2:D17"/>
   <tableColumns count="2">
     <tableColumn id="1" name="返回码" dataDxfId="0"/>
     <tableColumn id="2" name="说明"/>
@@ -2283,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2724,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D14"/>
+  <dimension ref="C2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2838,6 +2850,30 @@
       </c>
       <c r="D14" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="17">
+        <v>283</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="17">
+        <v>285</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="17">
+        <v>287</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="174">
   <si>
     <t>check if register</t>
   </si>
@@ -1357,16 +1357,6 @@
   </si>
   <si>
     <t>ball/get_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the location */
- "lat": xxx,
- "lng": xxx,
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1451,6 +1441,68 @@
   </si>
   <si>
     <t>your ball hit nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get ball location </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball/current_loc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the location */
+ "lat": xxx,
+ "lng": xxx,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"distance": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the ball id */
+ "ball_id": xxxx
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  /* the mobile that register */
+  "mobile":xxx,
+  "ball_id": xxxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1981,8 +2033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G24"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2293,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2657,71 +2709,88 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="337.5">
+    <row r="20" spans="2:8" ht="108">
       <c r="B20" s="2"/>
       <c r="C20" s="12" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G20" s="22"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="2:8" ht="337.5">
       <c r="B21" s="2"/>
       <c r="C21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:8" ht="337.5">
+      <c r="B22" s="2"/>
+      <c r="C22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="2:8" ht="81">
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:8" ht="81">
+      <c r="B23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="2:8" ht="81">
-      <c r="B23" s="2"/>
-      <c r="C23" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F23" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="2:8" ht="81">
+      <c r="B24" s="2"/>
+      <c r="C24" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="F24" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2738,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2857,7 +2926,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -2865,7 +2934,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -2873,7 +2942,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="179">
   <si>
     <t>check if register</t>
   </si>
@@ -1115,26 +1115,6 @@
   </si>
   <si>
     <t>feed/locate_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0, 
- "mobile": xxx,
- "geo": [ 
- {
- "friend_mobile": xxx
- /* lat and lng */
- "lat": xxx,
- "lng": xxx,
- }, {
- "friend_mobile": xxx
- /* lat and lng */
- "lat": xxx,
- "lng": xxx,
- },
- ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1391,15 +1371,6 @@
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
- /* the user blood */
- "blood_level": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1452,6 +1423,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the ball id */
+ "ball_id": xxxx
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  /* the mobile that register */
+  "mobile":xxx,
+  "ball_id": xxxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0, 
+ "mobile": xxx,
+ "geo": [ 
+ {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ }, {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ },
+ ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">{
  /* the mobile that register */
@@ -1463,45 +1474,107 @@
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF7F7F7F"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"distance": xxx,</t>
+      <t>"distance": xxx,
+}</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-}</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get balls base on location
+and users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball/locate_get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
- /* the ball id */
- "ball_id": xxxx
+ /* 1: location, 2: user,3 loaction
+ and user,
+ "mask": xxxx,
+ /* the location */
+ "lat": xxx,
+ "lng": xxx,
+ "distance": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
+ /* the mobile that register */
+ "mobile":xxx,
+ "balls:":[{
   /* the mobile that register */
-  "mobile":xxx,
   "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
   /* the location of ball */
   "current_lat": xxxx,
   "current_lng": xxxx,
+ },{
+  /* the mobile that register */
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ /* the mobile that register */
+ "mobile":xxx,
+ "balls:":[{
+  /* the mobile that register */
+  "user": xxx,
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ },{
+  /* the mobile that register */
+  "user": xxx,
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the user blood */
+ "blood_level": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1510,7 +1583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1651,8 +1724,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1689,8 +1779,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1788,11 +1884,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1929,12 +2043,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2033,8 +2160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G25"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2345,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2474,7 +2601,7 @@
         <v>119</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
@@ -2603,7 +2730,7 @@
         <v>106</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>129</v>
@@ -2636,16 +2763,16 @@
     <row r="16" spans="2:9" ht="54">
       <c r="B16" s="2"/>
       <c r="C16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="43" t="s">
+      <c r="F16" s="43" t="s">
         <v>141</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>142</v>
       </c>
       <c r="G16" s="52"/>
     </row>
@@ -2676,121 +2803,136 @@
         <v>133</v>
       </c>
       <c r="E18" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>137</v>
-      </c>
       <c r="H18" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="216">
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="E19" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>151</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>152</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="108">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="222" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="F20" s="43" t="s">
         <v>170</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>173</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="53"/>
     </row>
-    <row r="21" spans="2:8" ht="337.5">
-      <c r="B21" s="2"/>
-      <c r="C21" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="12" t="s">
+    <row r="21" spans="2:8" ht="121.5" customHeight="1">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="2:8" ht="337.5">
-      <c r="B22" s="2"/>
-      <c r="C22" s="12" t="s">
+      <c r="D21" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="57"/>
+    </row>
+    <row r="22" spans="2:8" ht="120.75" customHeight="1">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="2:8" ht="81">
-      <c r="B23" s="2" t="s">
+      <c r="F22" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="57"/>
+    </row>
+    <row r="23" spans="2:8" s="12" customFormat="1" ht="120.75" customHeight="1">
+      <c r="C23" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8" ht="81">
+      <c r="B24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="2:8" ht="81">
-      <c r="B24" s="2"/>
-      <c r="C24" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:8" ht="94.5">
+      <c r="B25" s="2"/>
+      <c r="C25" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2878,7 +3020,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -2926,7 +3068,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -2934,7 +3076,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -2942,7 +3084,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2975,12 +3117,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1433,17 +1433,6 @@
   </si>
   <si>
     <t>{
-  /* the mobile that register */
-  "mobile":xxx,
-  "ball_id": xxxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "status": 0, 
  "mobile": xxx,
  "geo": [ 
@@ -1576,6 +1565,42 @@
  /* the user blood */
  "blood_level": xxx,
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  /* the mobile that register */
+  "mobile":xxx,
+  "ball_id": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  /* 0: running, 3: dead */
+  "ball_status": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2474,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2806,7 +2831,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>136</v>
@@ -2848,7 +2873,7 @@
         <v>169</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="53"/>
@@ -2862,7 +2887,7 @@
         <v>145</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" s="56" t="s">
         <v>163</v>
@@ -2881,22 +2906,22 @@
         <v>157</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="57"/>
     </row>
     <row r="23" spans="2:8" s="12" customFormat="1" ht="120.75" customHeight="1">
       <c r="C23" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>175</v>
-      </c>
       <c r="F23" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H23" s="17"/>
     </row>
@@ -2930,7 +2955,7 @@
         <v>162</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G25" s="22"/>
     </row>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1355,19 +1355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profile/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the user blood */
- "blood_level": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
@@ -1558,16 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "status": 0,
- /* the mobile that register */
- "mobile": xxxx,
- /* the user blood */
- "blood_level": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">{
   /* the mobile that register */
@@ -1602,6 +1579,27 @@
 }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the user blood */
+ "score": xxx,
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the user blood */
+ "score": xxx,
+}</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2083,6 +2081,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2499,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2831,7 +2842,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>136</v>
@@ -2864,16 +2875,16 @@
     <row r="20" spans="2:8" ht="222" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>169</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="53"/>
@@ -2887,10 +2898,10 @@
         <v>145</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G21" s="57"/>
     </row>
@@ -2906,42 +2917,43 @@
         <v>157</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G22" s="57"/>
     </row>
     <row r="23" spans="2:8" s="12" customFormat="1" ht="120.75" customHeight="1">
       <c r="C23" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="43" t="s">
+      <c r="F23" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8" s="63" customFormat="1" ht="81">
+      <c r="B24" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:8" ht="81">
-      <c r="B24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="2:8" ht="94.5">
       <c r="B25" s="2"/>
@@ -2952,10 +2964,10 @@
         <v>159</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -3093,7 +3105,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -3101,7 +3113,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3109,7 +3121,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1282,14 +1282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">/* ball got end, notify all reference people */
-Push Message Format：
-msg content： 285
-extras： 发送方用户名
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
@@ -1511,6 +1503,128 @@
   "current_lng": xxxx,
  }]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  /* the mobile that register */
+  "mobile":xxx,
+  "ball_id": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  /* 0: running, 3: dead */
+  "ball_status": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the user blood */
+ "score": xxx,
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the user blood */
+ "score": xxx,
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/* ball got clashed, notify the people that hit by ball*/
+Push Message Format：
+msg content： 285
+extras： {
+/* the people name that ball hit */
+"receiver": xxx,
+"end_lat": xxxx,
+"end_lng": xxxx,
+"ball_id": xxxx,
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/* ball got clashed, notify the people that own the ball*/
+Push Message Format：
+msg content： 283
+extras： {
+/* the people name that ball own */
+"receiver": xxx,
+"end_lat": xxxx,
+"end_lng": xxxx,
+"ball_id": xxxx,
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1544,69 +1658,12 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  /* the mobile that register */
-  "mobile":xxx,
-  "ball_id": xxxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  /* 0: running, 3: dead */
-  "ball_status": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profile/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the user blood */
- "score": xxx,
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- /* the mobile that register */
- "mobile": xxxx,
- /* the user blood */
- "score": xxx,
-}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,6 +1818,22 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1929,7 +2002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2078,22 +2151,25 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2510,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2521,8 +2597,9 @@
     <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
     <col min="5" max="5" width="40.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
-    <col min="7" max="7" width="56.375" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1">
@@ -2812,7 +2889,7 @@
       </c>
       <c r="G16" s="52"/>
     </row>
-    <row r="17" spans="2:8" ht="94.5">
+    <row r="17" spans="2:9" ht="94.5">
       <c r="B17" s="2" t="s">
         <v>124</v>
       </c>
@@ -2830,7 +2907,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="2:8" ht="229.5">
+    <row r="18" spans="2:9" ht="229.5">
       <c r="B18" s="2"/>
       <c r="C18" s="12" t="s">
         <v>132</v>
@@ -2842,7 +2919,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>136</v>
@@ -2851,7 +2928,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="216">
+    <row r="19" spans="2:9" ht="310.5">
       <c r="B19" s="2" t="s">
         <v>147</v>
       </c>
@@ -2862,34 +2939,35 @@
         <v>144</v>
       </c>
       <c r="E19" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="222" customHeight="1">
+      <c r="H19" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="2:9" ht="222" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="43" t="s">
-        <v>167</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="53"/>
     </row>
-    <row r="21" spans="2:8" ht="121.5" customHeight="1">
+    <row r="21" spans="2:9" ht="121.5" customHeight="1">
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
         <v>146</v>
@@ -2898,76 +2976,76 @@
         <v>145</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" s="57"/>
     </row>
-    <row r="22" spans="2:8" ht="120.75" customHeight="1">
+    <row r="22" spans="2:9" ht="120.75" customHeight="1">
       <c r="B22" s="54"/>
       <c r="C22" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="E22" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>157</v>
-      </c>
       <c r="F22" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="57"/>
     </row>
-    <row r="23" spans="2:8" s="12" customFormat="1" ht="120.75" customHeight="1">
+    <row r="23" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
       <c r="C23" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>172</v>
-      </c>
       <c r="F23" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:9" s="62" customFormat="1" ht="81">
+      <c r="B24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:8" s="63" customFormat="1" ht="81">
-      <c r="B24" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="59" t="s">
+      <c r="E24" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="2:8" ht="94.5">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+    </row>
+    <row r="25" spans="2:9" ht="94.5">
       <c r="B25" s="2"/>
       <c r="C25" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>160</v>
-      </c>
       <c r="F25" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -3105,7 +3183,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -3113,7 +3191,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3121,7 +3199,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3154,12 +3232,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1324,21 +1324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>query ball base by users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ball/get_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get profile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1474,34 +1459,6 @@
  "lat": xxx,
  "lng": xxx,
  "distance": xxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile":xxx,
- "balls:":[{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- },{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- }]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1658,12 +1615,130 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>query ball base by users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball/get_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ /* the mobile that register */
+ "mobile": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /* the date that indicate the timestamp */
+ "since_date": xxxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ /* the mobile that register */
+ "mobile":xxx,
+ "balls:":[{
+  /* the mobile that register */
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "sender": xxxx,
+  "catcher": xxxx,
+  "ball_status": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ },{
+  /* the mobile that register */
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "sender": xxxx,
+  "catcher": xxxx,
+  "ball_status": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ }]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,6 +1912,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2164,11 +2247,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2586,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2595,7 +2678,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="31.625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="44.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
@@ -2919,7 +3002,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>136</v>
@@ -2945,24 +3028,24 @@
         <v>150</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="64" t="s">
-        <v>177</v>
+      <c r="H19" s="63" t="s">
+        <v>173</v>
       </c>
       <c r="I19" s="53"/>
     </row>
     <row r="20" spans="2:9" ht="222" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="53"/>
@@ -2976,41 +3059,41 @@
         <v>145</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G21" s="57"/>
     </row>
     <row r="22" spans="2:9" ht="120.75" customHeight="1">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="57"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
       <c r="C23" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H23" s="17"/>
     </row>
@@ -3022,10 +3105,10 @@
         <v>152</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>153</v>
@@ -3036,16 +3119,16 @@
     <row r="25" spans="2:9" ht="94.5">
       <c r="B25" s="2"/>
       <c r="C25" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -3183,7 +3266,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -3191,7 +3274,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3199,7 +3282,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3232,12 +3315,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1463,42 +1463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{
-  /* the mobile that register */
-  "mobile":xxx,
-  "ball_id": xxxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  /* 0: running, 3: dead */
-  "ball_status": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>profile/update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1680,7 +1644,20 @@
       </rPr>
       <t xml:space="preserve">  "sender": xxxx,
   "catcher": xxxx,
-  "ball_status": xxx,</t>
+  "ball_status": xxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "begin_date": xxx,
+  "end_date": xxx,</t>
     </r>
     <r>
       <rPr>
@@ -1714,7 +1691,20 @@
       </rPr>
       <t xml:space="preserve">  "sender": xxxx,
   "catcher": xxxx,
-  "ball_status": xxx,</t>
+  "ball_status": xxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "begin_date": xxx,
+  "end_date": xxx,</t>
     </r>
     <r>
       <rPr>
@@ -1733,12 +1723,71 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  /* the mobile that register */
+  "mobile":xxx,
+  "ball_id": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  /* 0: running, 3: dead */
+  "ball_status": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "begin_date": xxx,
+  "end_date": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1915,6 +1964,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2669,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3029,7 +3086,7 @@
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I19" s="53"/>
     </row>
@@ -3045,7 +3102,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="53"/>
@@ -3069,16 +3126,16 @@
     <row r="22" spans="2:9" ht="120.75" customHeight="1">
       <c r="B22" s="12"/>
       <c r="C22" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="F22" s="43" t="s">
         <v>177</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>178</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -3093,7 +3150,7 @@
         <v>168</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="17"/>
     </row>
@@ -3105,10 +3162,10 @@
         <v>152</v>
       </c>
       <c r="D24" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="59" t="s">
         <v>170</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>171</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>153</v>
@@ -3128,7 +3185,7 @@
         <v>156</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="22"/>
     </row>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1590,21 +1590,48 @@
   <si>
     <r>
       <t xml:space="preserve">{
- /* the mobile that register */
- "mobile": xxxx,
+  /* the mobile that register */
+  "mobile":xxx,
+  "ball_id": xxxx,
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> /* the date that indicate the timestamp */
- "since_date": xxxx,</t>
+      <t xml:space="preserve">  /* 0: running, 3: dead */
+  "ball_status": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "begin_date": xxx,
+  "end_date": xxx,</t>
     </r>
     <r>
       <rPr>
@@ -1726,22 +1753,22 @@
   <si>
     <r>
       <t xml:space="preserve">{
-  /* the mobile that register */
-  "mobile":xxx,
-  "ball_id": xxxx,
+ /* the mobile that register */
+ "mobile": xxxx,
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="6" tint="-0.499984740745262"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  /* 0: running, 3: dead */
-  "ball_status": xxx,</t>
+      <t xml:space="preserve"> /* require type: 1, sender;2,receiver;3,
+ sender+receiver */
+ "requireType": xx;</t>
     </r>
     <r>
       <rPr>
@@ -1752,22 +1779,20 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
+        <color rgb="FFC00000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  "begin_date": xxx,
-  "end_date": xxx,</t>
+      <t xml:space="preserve"> /* the date that indicate the timestamp
+ of latest balls */
+ "since_date": xxxx,</t>
     </r>
     <r>
       <rPr>
@@ -2727,7 +2752,7 @@
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3102,7 +3127,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="53"/>
@@ -3132,7 +3157,7 @@
         <v>175</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>177</v>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1745,7 +1745,59 @@
   /* the location of ball */
   "current_lat": xxxx,
   "current_lng": xxxx,
- }]
+ }],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "received_balls:":[{
+  /* the mobile that register */
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+  "sender": xxxx,
+  "catcher": xxxx,
+  "ball_status": xxx,
+  "begin_date": xxx,
+  "end_date": xxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ },{
+  /* the mobile that register */
+  "ball_id": xxxx,
+  /* what type of ball */
+  "type": xxx,
+  /* what content in ball */
+  "content": xxx,
+  "sender": xxxx,
+  "catcher": xxxx,
+  "ball_status": xxx,
+  "begin_date": xxx,
+  "end_date": xxx,
+  /* the location of ball */
+  "current_lat": xxxx,
+  "current_lng": xxxx,
+ }]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1791,7 +1843,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> /* the date that indicate the timestamp
- of latest balls */
+ of latest balls, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the timestamps that from 1970 to now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> */
  "since_date": xxxx,</t>
     </r>
     <r>
@@ -1812,7 +1886,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1997,6 +2071,14 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2752,7 +2834,7 @@
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="191">
   <si>
     <t>check if register</t>
   </si>
@@ -1301,26 +1301,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
- "status": 0,
- "mobile": xxx,
- "ball_id": xxxx,
-}
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Profile Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>update profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,34 +1320,6 @@
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile":xxx,
- "balls:":[{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- },{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- }]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,26 +1349,6 @@
  "mobile": xxxx,
  /* the ball id */
  "ball_id": xxxx
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0, 
- "mobile": xxx,
- "geo": [ 
- {
- "friend_mobile": xxx
- /* lat and lng */
- "lat": xxx,
- "lng": xxx,
- }, {
- "friend_mobile": xxx
- /* lat and lng */
- "lat": xxx,
- "lng": xxx,
- },
- ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1468,15 +1405,6 @@
   </si>
   <si>
     <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the user blood */
- "score": xxx,
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": 0,
  /* the mobile that register */
  "mobile": xxxx,
  /* the user blood */
@@ -1549,257 +1477,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "status": 0,
- /* the mobile that register */
- "mobile":xxx,
- "balls:":[{
-  /* the mobile that register */
-  "user": xxx,
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- },{
-  /* the mobile that register */
-  "user": xxx,
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- }]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>query ball base by users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ball/get_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  /* the mobile that register */
-  "mobile":xxx,
-  "ball_id": xxxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  /* 0: running, 3: dead */
-  "ball_status": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "begin_date": xxx,
-  "end_date": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
- /* the mobile that register */
- "mobile":xxx,
- "balls:":[{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "sender": xxxx,
-  "catcher": xxxx,
-  "ball_status": xxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "begin_date": xxx,
-  "end_date": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- },{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "sender": xxxx,
-  "catcher": xxxx,
-  "ball_status": xxx,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "begin_date": xxx,
-  "end_date": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- }],
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "received_balls:":[{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  "sender": xxxx,
-  "catcher": xxxx,
-  "ball_status": xxx,
-  "begin_date": xxx,
-  "end_date": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- },{
-  /* the mobile that register */
-  "ball_id": xxxx,
-  /* what type of ball */
-  "type": xxx,
-  /* what content in ball */
-  "content": xxx,
-  "sender": xxxx,
-  "catcher": xxxx,
-  "ball_status": xxx,
-  "begin_date": xxx,
-  "end_date": xxx,
-  /* the location of ball */
-  "current_lat": xxxx,
-  "current_lng": xxxx,
- }]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1879,6 +1561,111 @@
       <t xml:space="preserve">
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check out duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty/check_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/area_scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "lng":xxx,
+ "lat":xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0, 
+ "mobile": xxx,
+ "geo": [ 
+ {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ }, {
+ "friend_mobile": xxx
+ /* lat and lng */
+ "lat": xxx,
+ "lng": xxx,
+ },
+ ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "status": 0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "mobile": xxx,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "geo": [ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "friend_mobile": xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /* lat and lng */</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "lat": xxx,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "lng": xxx,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> }, {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>{
+ "status": 0, 
+ "mobile": xxx,
+ "robots": [ 
+ {
+ "user": xxx
+ /* lat and lng */
+ "current_lat": xxx,
+ "current_lng": xxx,
+ }, {
+ "user": xxx
+ /* lat and lng */
+ "current_lat": xxx,
+ "current_lng": xxx,
+ },
+ ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2519,8 +2306,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G35" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G35"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2831,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3166,7 +2953,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>136</v>
@@ -3175,126 +2962,223 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="310.5">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:9" ht="229.5">
+      <c r="B19" s="2"/>
+      <c r="C19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="2:9" ht="310.5">
+      <c r="B20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E20" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F20" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="2:9" ht="222" customHeight="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="2:9" ht="121.5" customHeight="1">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="57"/>
+    </row>
+    <row r="23" spans="2:9" ht="120.75" customHeight="1">
+      <c r="B23" s="12"/>
+      <c r="C23" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
+      <c r="C24" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:9" s="62" customFormat="1" ht="81">
+      <c r="B25" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="63" t="s">
+      <c r="C25" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
+    </row>
+    <row r="26" spans="2:9" ht="54">
+      <c r="B26" s="2"/>
+      <c r="C26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="53"/>
-    </row>
-    <row r="20" spans="2:9" ht="222" customHeight="1">
-      <c r="B20" s="2"/>
-      <c r="C20" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="53"/>
-    </row>
-    <row r="21" spans="2:9" ht="121.5" customHeight="1">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="57"/>
-    </row>
-    <row r="22" spans="2:9" ht="120.75" customHeight="1">
-      <c r="B22" s="12"/>
-      <c r="C22" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
-      <c r="C23" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="43" t="s">
+      <c r="D27" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:9" s="62" customFormat="1" ht="81">
-      <c r="B24" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-    </row>
-    <row r="25" spans="2:9" ht="94.5">
-      <c r="B25" s="2"/>
-      <c r="C25" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="22"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="2"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="2"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="2"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3430,7 +3314,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -3438,7 +3322,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3446,7 +3330,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1576,14 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>area scan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feed/area_scan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  /* the mobile that register */
  "mobile": xxxx,
@@ -1666,6 +1658,14 @@
  },
  ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/robot_scan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2621,7 +2621,7 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2953,7 +2953,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>136</v>
@@ -2965,16 +2965,16 @@
     <row r="19" spans="2:9" ht="229.5">
       <c r="B19" s="2"/>
       <c r="C19" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>176</v>
-      </c>
       <c r="F19" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="35"/>
@@ -2993,7 +2993,7 @@
         <v>149</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="63" t="s">
@@ -3013,7 +3013,7 @@
         <v>160</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="53"/>
@@ -3030,7 +3030,7 @@
         <v>161</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G22" s="57"/>
     </row>
@@ -3046,7 +3046,7 @@
         <v>170</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -3061,7 +3061,7 @@
         <v>164</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H24" s="17"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>166</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G25" s="60"/>
       <c r="H25" s="61"/>
@@ -3096,7 +3096,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G27" s="22"/>
     </row>
@@ -3120,7 +3120,7 @@
       <c r="B28" s="2"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G28" s="22"/>
     </row>
@@ -3128,7 +3128,7 @@
       <c r="B29" s="2"/>
       <c r="E29" s="43"/>
       <c r="F29" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G29" s="22"/>
     </row>
@@ -3136,7 +3136,7 @@
       <c r="B30" s="2"/>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G30" s="22"/>
     </row>
@@ -3144,7 +3144,7 @@
       <c r="B31" s="2"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G31" s="22"/>
     </row>
@@ -3152,7 +3152,7 @@
       <c r="B32" s="2"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -3160,7 +3160,7 @@
       <c r="B33" s="2"/>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G33" s="22"/>
     </row>
@@ -3168,7 +3168,7 @@
       <c r="B34" s="2"/>
       <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G34" s="22"/>
     </row>
@@ -3176,7 +3176,7 @@
       <c r="B35" s="2"/>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G35" s="22"/>
     </row>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1641,7 +1641,16 @@
     <t>}</t>
   </si>
   <si>
-    <t>{
+    <t>robot scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed/robot_scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
  "status": 0, 
  "mobile": xxx,
  "robots": [ 
@@ -1650,22 +1659,59 @@
  /* lat and lng */
  "current_lat": xxx,
  "current_lng": xxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "avatar_url": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
  }, {
  "user": xxx
  /* lat and lng */
  "current_lat": xxx,
  "current_lng": xxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "avatar_url": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
  },
  ]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>robot scan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feed/robot_scan</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2621,7 +2667,7 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2962,19 +3008,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="229.5">
+    <row r="19" spans="2:9" ht="256.5">
       <c r="B19" s="2"/>
       <c r="C19" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>174</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="35"/>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
   <si>
     <t>check if register</t>
   </si>
@@ -1710,6 +1710,37 @@
       <t xml:space="preserve">
  },
  ]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ "status": 0,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //continue login count: 0 for nothing, &gt; 0 for continue login
+ "count": x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2666,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2758,7 +2789,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>17</v>

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="179">
   <si>
     <t>check if register</t>
   </si>
@@ -1301,29 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Profile Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profile/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>you hit by ball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1400,18 +1377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profile/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- /* the user blood */
- "score": xxx,
-}</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1565,14 +1530,6 @@
   </si>
   <si>
     <t>Duty Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check out duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duty/check_out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1617,30 +1574,6 @@
     <t xml:space="preserve"> {</t>
   </si>
   <si>
-    <t xml:space="preserve"> "friend_mobile": xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /* lat and lng */</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "lat": xxx,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "lng": xxx,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> }, {</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> },</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ]</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>robot scan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1743,6 +1676,22 @@
       <t xml:space="preserve">
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check out duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty/check_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "friend_mobile": xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return check out duty with html format</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1949,7 +1898,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1989,6 +1938,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,7 +2068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2262,25 +2217,28 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2383,8 +2341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G35" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G25"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2695,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2789,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>17</v>
@@ -3030,7 +2988,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>136</v>
@@ -3042,16 +3000,16 @@
     <row r="19" spans="2:9" ht="256.5">
       <c r="B19" s="2"/>
       <c r="C19" s="12" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="35"/>
@@ -3070,27 +3028,27 @@
         <v>149</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="63" t="s">
-        <v>167</v>
+      <c r="H20" s="58" t="s">
+        <v>160</v>
       </c>
       <c r="I20" s="53"/>
     </row>
     <row r="21" spans="2:9" ht="222" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="53"/>
@@ -3104,158 +3062,60 @@
         <v>145</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G22" s="57"/>
     </row>
     <row r="23" spans="2:9" ht="120.75" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="43" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E23" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="43" t="s">
         <v>170</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>179</v>
       </c>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
       <c r="C24" s="43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E24" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:9" s="65" customFormat="1" ht="42" customHeight="1">
+      <c r="B25" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" s="62" customFormat="1" ht="81">
-      <c r="B25" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-    </row>
-    <row r="26" spans="2:9" ht="54">
-      <c r="B26" s="2"/>
-      <c r="C26" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="2"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="2"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="2"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="2"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="2"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="2"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="2"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="2"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="22"/>
+      <c r="C25" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3391,7 +3251,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -3399,7 +3259,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3407,7 +3267,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3440,12 +3300,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
   <si>
     <t>check if register</t>
   </si>
@@ -836,14 +836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- /* the mobile that register */
- "mobile": xxxx,
- "local_friend_version": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Push Message Format：
 </t>
@@ -969,13 +961,6 @@
   </si>
   <si>
     <t>user/upload_avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "avatar_url": xxx,
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1692,6 +1677,43 @@
   </si>
   <si>
     <t>return check out duty with html format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/get_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "local_friend_version": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "avatar_url": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "score": xxx,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2068,7 +2090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2220,25 +2242,34 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2341,8 +2372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G26"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2653,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2708,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>17</v>
@@ -2747,7 +2778,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>17</v>
@@ -2757,365 +2788,382 @@
     <row r="6" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
       <c r="B6" s="44"/>
       <c r="C6" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>117</v>
-      </c>
       <c r="E6" s="47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
     </row>
-    <row r="7" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
+    <row r="7" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
       <c r="B7" s="44"/>
       <c r="C7" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
     </row>
-    <row r="8" spans="2:9" ht="99.95" customHeight="1">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:9" s="31" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
+      <c r="B8" s="23"/>
+      <c r="C8" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:9" ht="99.95" customHeight="1">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="99.95" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
+      <c r="H9" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="99.95" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H10" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="173.25" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="2:9" ht="96" customHeight="1">
+    <row r="11" spans="2:9" ht="173.25" customHeight="1">
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="2:9" ht="96" customHeight="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E12" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F12" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E13" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F13" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="2:9" ht="83.25" customHeight="1" thickBot="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="2:9" ht="83.25" customHeight="1" thickBot="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="176.25" thickBot="1">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:9" ht="176.25" thickBot="1">
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="148.5">
-      <c r="B15" s="2"/>
-      <c r="C15" s="12" t="s">
+      <c r="E15" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="54">
+    </row>
+    <row r="16" spans="2:9" ht="148.5">
       <c r="B16" s="2"/>
       <c r="C16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="54">
+      <c r="B17" s="2"/>
+      <c r="C17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="52"/>
-    </row>
-    <row r="17" spans="2:9" ht="94.5">
-      <c r="B17" s="2" t="s">
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="2:9" ht="94.5">
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E18" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="F18" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" ht="229.5">
-      <c r="B18" s="2"/>
-      <c r="C18" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="256.5">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:9" ht="229.5">
       <c r="B19" s="2"/>
       <c r="C19" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="256.5">
+      <c r="B20" s="2"/>
+      <c r="C20" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="51" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="2:9" ht="310.5">
+      <c r="B21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="2:9" ht="222" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="2:9" ht="121.5" customHeight="1">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="2:9" ht="120.75" customHeight="1">
+      <c r="B24" s="12"/>
+      <c r="C24" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
+      <c r="C25" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="2:9" s="64" customFormat="1" ht="42" customHeight="1">
+      <c r="B26" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="2:9" ht="310.5">
-      <c r="B20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="53"/>
-    </row>
-    <row r="21" spans="2:9" ht="222" customHeight="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="53"/>
-    </row>
-    <row r="22" spans="2:9" ht="121.5" customHeight="1">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="57"/>
-    </row>
-    <row r="23" spans="2:9" ht="120.75" customHeight="1">
-      <c r="B23" s="12"/>
-      <c r="C23" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
-      <c r="C24" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" s="65" customFormat="1" ht="42" customHeight="1">
-      <c r="B25" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="61" t="s">
+      <c r="D26" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3171,7 +3219,7 @@
         <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -3203,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -3243,7 +3291,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -3251,7 +3299,7 @@
         <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -3259,7 +3307,7 @@
         <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3267,7 +3315,7 @@
         <v>287</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3300,12 +3348,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">

--- a/docs/API_Intro_V4.xlsx
+++ b/docs/API_Intro_V4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="O25" authorId="0">
+    <comment ref="O25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0">
+    <comment ref="H50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O50" authorId="0">
+    <comment ref="O50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="191">
   <si>
     <t>check if register</t>
   </si>
@@ -1716,11 +1716,56 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>user/update_nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "nickname": xxx
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/get_nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "nickname": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "nickname": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -1920,7 +1965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1966,6 +2011,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,7 +2141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2258,18 +2309,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2367,13 +2437,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G28"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -2440,7 +2513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2473,9 +2546,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2508,6 +2598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2684,25 +2791,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="44.5" style="22" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" style="22" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="56.33203125" style="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="14.25" thickBot="1">
+    <row r="2" spans="2:9" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2725,7 +2832,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="99.95" customHeight="1">
+    <row r="3" spans="2:9" ht="99.9" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2746,7 +2853,7 @@
       </c>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="2:9" ht="99.95" customHeight="1">
+    <row r="4" spans="2:9" ht="99.9" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
@@ -2766,7 +2873,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9" ht="99.95" customHeight="1" thickBot="1">
+    <row r="5" spans="2:9" ht="99.9" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
         <v>7</v>
@@ -2785,7 +2892,7 @@
       </c>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
+    <row r="6" spans="2:9" s="50" customFormat="1" ht="99.9" customHeight="1">
       <c r="B6" s="44"/>
       <c r="C6" s="45" t="s">
         <v>115</v>
@@ -2802,7 +2909,7 @@
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
     </row>
-    <row r="7" spans="2:9" s="50" customFormat="1" ht="99.95" customHeight="1">
+    <row r="7" spans="2:9" s="50" customFormat="1" ht="99.9" customHeight="1">
       <c r="B7" s="44"/>
       <c r="C7" s="45" t="s">
         <v>114</v>
@@ -2819,9 +2926,9 @@
       <c r="G7" s="48"/>
       <c r="H7" s="49"/>
     </row>
-    <row r="8" spans="2:9" s="31" customFormat="1" ht="99.95" customHeight="1" thickBot="1">
+    <row r="8" spans="2:9" s="31" customFormat="1" ht="99.9" customHeight="1">
       <c r="B8" s="23"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -2833,337 +2940,371 @@
       <c r="F8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-    </row>
-    <row r="9" spans="2:9" ht="99.95" customHeight="1">
-      <c r="B9" s="13" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+    </row>
+    <row r="9" spans="2:9" s="75" customFormat="1" ht="99.9" customHeight="1">
+      <c r="B9" s="69"/>
+      <c r="C9" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+    </row>
+    <row r="10" spans="2:9" s="75" customFormat="1" ht="99.9" customHeight="1" thickBot="1">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="2:9" ht="99.9" customHeight="1">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H11" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="99.95" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
+    <row r="12" spans="2:9" ht="99.9" customHeight="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H12" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="173.25" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+    <row r="13" spans="2:9" ht="173.25" customHeight="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E13" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="2:9" ht="96" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="2:9" ht="96" customHeight="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="2:9" s="42" customFormat="1" ht="96" customHeight="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D15" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="2:9" ht="83.25" customHeight="1" thickBot="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="10" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:9" ht="83.25" customHeight="1" thickBot="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="176.25" thickBot="1">
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="2:9" ht="187.8" thickBot="1">
+      <c r="B17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E17" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H17" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="148.5">
-      <c r="B16" s="2"/>
-      <c r="C16" s="12" t="s">
+    <row r="18" spans="2:9" ht="158.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E18" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F18" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="54">
-      <c r="B17" s="2"/>
-      <c r="C17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="2:9" ht="94.5">
-      <c r="B18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="2:9" ht="229.5">
+    <row r="19" spans="2:9" ht="57.6">
       <c r="B19" s="2"/>
       <c r="C19" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="2:9" ht="100.8">
+      <c r="B20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:9" ht="244.8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E21" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F21" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G21" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H21" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="256.5">
-      <c r="B20" s="2"/>
-      <c r="C20" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="2:9" ht="310.5">
-      <c r="B21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="53"/>
-    </row>
-    <row r="22" spans="2:9" ht="222" customHeight="1">
+    <row r="22" spans="2:9" ht="273.60000000000002">
       <c r="B22" s="2"/>
       <c r="C22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="2:9" ht="331.2">
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="53"/>
+    </row>
+    <row r="24" spans="2:9" ht="222" customHeight="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E24" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F24" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" spans="2:9" ht="121.5" customHeight="1">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="2:9" ht="121.5" customHeight="1">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D25" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E25" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F25" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="57"/>
-    </row>
-    <row r="24" spans="2:9" ht="120.75" customHeight="1">
-      <c r="B24" s="12"/>
-      <c r="C24" s="43" t="s">
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="2:9" ht="120.75" customHeight="1">
+      <c r="B26" s="12"/>
+      <c r="C26" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E26" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F26" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
-      <c r="C25" s="43" t="s">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" s="12" customFormat="1" ht="120.75" customHeight="1">
+      <c r="C27" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E27" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F27" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="2:9" s="64" customFormat="1" ht="42" customHeight="1">
-      <c r="B26" s="59" t="s">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="2:9" s="64" customFormat="1" ht="42" customHeight="1">
+      <c r="B28" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C28" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D28" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="s">
+      <c r="E28" s="61"/>
+      <c r="F28" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3184,10 +3325,10 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="20.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="20.100000000000001" customHeight="1">
@@ -3336,24 +3477,24 @@
       <selection activeCell="B75" sqref="B74:B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="4" style="29" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="12" max="12" width="4" style="29" customWidth="1"/>
-    <col min="13" max="13" width="6.125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
